--- a/data/trans_camb/P07_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P07_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-3.735492559301223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.530871498210123</v>
+        <v>1.530871498210121</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-6.78045346868898</v>
@@ -655,7 +655,7 @@
         <v>-6.810336307783701</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.776386187951227</v>
+        <v>-2.776386187951224</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.253858383250451</v>
@@ -664,7 +664,7 @@
         <v>-4.833817131212006</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.1051139879658686</v>
+        <v>-0.1051139879658713</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.466297256432463</v>
+        <v>-5.236117547840884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.753557501619762</v>
+        <v>-7.534227854805736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.651489043514365</v>
+        <v>-2.600386873363457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.30248111837926</v>
+        <v>-12.092741214495</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.48204984638522</v>
+        <v>-12.65971650809062</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.821416218838166</v>
+        <v>-7.523408400659577</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.486197720190247</v>
+        <v>-6.540522438633199</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.07653420983287</v>
+        <v>-7.857780322405453</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.245689494210277</v>
+        <v>-3.553147880667574</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.275497509868833</v>
+        <v>3.723020790895507</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07124904230454343</v>
+        <v>0.242604343630754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.725745172221454</v>
+        <v>5.608338376064355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.604143727241902</v>
+        <v>-1.316865145485799</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.943426207007683</v>
+        <v>-1.271168424599423</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.144358566847758</v>
+        <v>2.143301599455288</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1064842352673619</v>
+        <v>0.7446620361021654</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.518024649346116</v>
+        <v>-1.225710269066326</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.982290701840496</v>
+        <v>3.028455796289684</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.32289493958284</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1323281072245309</v>
+        <v>0.1323281072245306</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.4082312454497525</v>
@@ -760,7 +760,7 @@
         <v>-0.4100304036738368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.167158081180073</v>
+        <v>-0.1671580811800728</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.24014682451311</v>
@@ -769,7 +769,7 @@
         <v>-0.3567536437089877</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.007757802414466557</v>
+        <v>-0.007757802414466762</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3892554938521909</v>
+        <v>-0.3887436609572464</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5615440914657261</v>
+        <v>-0.5582463559370602</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1963554240671626</v>
+        <v>-0.1924927176882747</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6281065160311192</v>
+        <v>-0.6171186855293375</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6281870565795558</v>
+        <v>-0.6288072446691289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3801444810024591</v>
+        <v>-0.3811668566036588</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4210218360757967</v>
+        <v>-0.4298553514706536</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5244790728418015</v>
+        <v>-0.5157387169774187</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2167575779104465</v>
+        <v>-0.2259970266322382</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3312244202201878</v>
+        <v>0.3727591167621104</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01471178410534131</v>
+        <v>0.02879145835834156</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6322808023624478</v>
+        <v>0.6046251459912189</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1049689182245352</v>
+        <v>-0.08030861510366227</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1222052832907718</v>
+        <v>-0.07510805810380165</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1658244601662794</v>
+        <v>0.1693350438675974</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02056072938517133</v>
+        <v>0.06444148449193746</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1207739510483707</v>
+        <v>-0.08558503913314054</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2508291353106749</v>
+        <v>0.2471937700251938</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-0.6923304094845248</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.100328268766034</v>
+        <v>0.1003282687660367</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.562426914183487</v>
+        <v>-4.825786103790008</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.922954926272266</v>
+        <v>-4.527102499760709</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.067427382747407</v>
+        <v>-3.641421182602987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.200531045621039</v>
+        <v>-7.143069561240756</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.105129795903927</v>
+        <v>-7.126746300418999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.535794033284349</v>
+        <v>-5.363852283547029</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.066077354994775</v>
+        <v>-4.22970161797048</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.982833235769463</v>
+        <v>-4.044601826250079</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.241872033193173</v>
+        <v>-3.177718731576647</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.204304906339073</v>
+        <v>4.481508907685004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.358595400392442</v>
+        <v>5.244052998363989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.219519671615288</v>
+        <v>5.182077014959702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.453094890126097</v>
+        <v>4.127919416898609</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.81191391834998</v>
+        <v>3.670765789211113</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.061619965784124</v>
+        <v>3.959712662683645</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.094589687393162</v>
+        <v>2.811984752491941</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.700653225542019</v>
+        <v>3.202264600538815</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.21513124527226</v>
+        <v>2.849186046261852</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.05293683352004541</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.007671280631709166</v>
+        <v>0.007671280631709378</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3553162823891617</v>
+        <v>-0.3492389080037023</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3017325992338157</v>
+        <v>-0.33340288094965</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2390122987466217</v>
+        <v>-0.2642577080016879</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3973695148130441</v>
+        <v>-0.3994487900506282</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4006968156123866</v>
+        <v>-0.4096003220976033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3005054299804454</v>
+        <v>-0.2954712727460957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2778537052519813</v>
+        <v>-0.2844213925837458</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.267676927406669</v>
+        <v>-0.2720366258554274</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2121654066111844</v>
+        <v>-0.2134216869777349</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5067186212982069</v>
+        <v>0.544035337098113</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6497766215147538</v>
+        <v>0.6485035212663154</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6333991727719691</v>
+        <v>0.6142354656131431</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3386017320664846</v>
+        <v>0.3257667943610859</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3000833950007841</v>
+        <v>0.2993324250489303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3317263548122188</v>
+        <v>0.3267932222164042</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2695545283266086</v>
+        <v>0.2557700680725978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2519829105250876</v>
+        <v>0.2806873767946743</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2869368965213228</v>
+        <v>0.2519799424580465</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.193249341933508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.147690975036275</v>
+        <v>4.147690975036272</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.862079207957347</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.08129083639231</v>
+        <v>0.9504047905912055</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.615417837581634</v>
+        <v>-3.46197577637432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.748284497459983</v>
+        <v>-0.7376661247805893</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.9663391790297</v>
+        <v>-12.65416472591497</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.24161436307446</v>
+        <v>-12.1441220179075</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.138595913134695</v>
+        <v>-9.570989005508746</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2839761376993068</v>
+        <v>-0.5389840625301785</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.35000041170853</v>
+        <v>-3.291910400355374</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6945762434961177</v>
+        <v>-0.488464349235879</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.58791476231507</v>
+        <v>10.57664156046686</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.636422518476121</v>
+        <v>5.92890923390173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.872806290747709</v>
+        <v>9.126517274613931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.996789594920359</v>
+        <v>5.017862024823943</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.458771684210364</v>
+        <v>9.058194055856235</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.059902831183051</v>
+        <v>7.645022419747649</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.500414730276352</v>
+        <v>7.621216819464199</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.067630134364509</v>
+        <v>5.48426566382219</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.411164934483949</v>
+        <v>7.730353622069364</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.07326165937093759</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2546548426304953</v>
+        <v>0.2546548426304951</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1373318196982651</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05361684705405567</v>
+        <v>0.04309450887177536</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1876244195381458</v>
+        <v>-0.1837909797462532</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.04603978711453066</v>
+        <v>-0.04186711184232329</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3849809516971987</v>
+        <v>-0.3853276429251015</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3379623650009472</v>
+        <v>-0.3501338598245228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2803984392085999</v>
+        <v>-0.2838914414891458</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.01327168606782013</v>
+        <v>-0.02483903726595842</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1597600288151276</v>
+        <v>-0.1570638411333354</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03083053547283695</v>
+        <v>-0.02427877811577141</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7394958600452136</v>
+        <v>0.7501750510112469</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4030384273503375</v>
+        <v>0.4317503052892681</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.622016207121562</v>
+        <v>0.6508371225184963</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2262422146757773</v>
+        <v>0.2320225803069833</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3656208298943464</v>
+        <v>0.3910052584960882</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3650907158812462</v>
+        <v>0.3295533000401294</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4406148158841441</v>
+        <v>0.4472476303163867</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2956458678366424</v>
+        <v>0.3256129113701106</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.430400000009302</v>
+        <v>0.4568910135583104</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.300147172700237</v>
+        <v>-2.467491029550618</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.717566600615108</v>
+        <v>-3.373659808961121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9335627863667342</v>
+        <v>-0.5881586362505982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.393415617123204</v>
+        <v>-7.186323538496714</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.882917231355547</v>
+        <v>-8.941344157160245</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.632550342254804</v>
+        <v>-7.529184942901111</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.040375892929236</v>
+        <v>-3.216180045437977</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.024474754036237</v>
+        <v>-4.024268800865716</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.11098230219613</v>
+        <v>-2.3402240249644</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.347563634075699</v>
+        <v>4.395193266109573</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.411809391491603</v>
+        <v>3.276004399532682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.644573563691917</v>
+        <v>5.931079747351792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.440458145771401</v>
+        <v>1.717464167116425</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2190559196994483</v>
+        <v>0.04843460380924193</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3025240259028986</v>
+        <v>0.152855363148872</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.36138463194376</v>
+        <v>1.889613987483117</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.178175078038343</v>
+        <v>1.139915520732192</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.959868643453786</v>
+        <v>2.810827720077719</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1136453829180909</v>
+        <v>-0.1149868432590973</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1360482886705354</v>
+        <v>-0.1605258743278005</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04576631128728738</v>
+        <v>-0.0382779268996604</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2744657491740942</v>
+        <v>-0.2737903059291317</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3271901763517415</v>
+        <v>-0.3293699463375469</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2777183001947461</v>
+        <v>-0.2764909628705413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1341183716765701</v>
+        <v>-0.143531719736859</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1807459767680599</v>
+        <v>-0.1819906633514435</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09615457884956706</v>
+        <v>-0.100787481318745</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2471698484190859</v>
+        <v>0.2532740920718399</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1924369120329148</v>
+        <v>0.1794639018950903</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3227654709932319</v>
+        <v>0.3402591700742529</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.06846591489314699</v>
+        <v>0.07585520378599057</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.00950636142890896</v>
+        <v>0.004265457484195339</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01875399325974012</v>
+        <v>0.007520346556353768</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1202212714990172</v>
+        <v>0.09414684455374593</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06339643678906826</v>
+        <v>0.05769761363498974</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1524566956249467</v>
+        <v>0.1430168620663734</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.091938516528099</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.799693951003897</v>
+        <v>-1.7996939510039</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.326635545220408</v>
@@ -1511,7 +1511,7 @@
         <v>-1.584564531967869</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.144505363167303</v>
+        <v>1.144505363167314</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.07248949607590038</v>
@@ -1520,7 +1520,7 @@
         <v>-2.126311454760554</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.2998618754860682</v>
+        <v>-0.2998618754860738</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.83839734352929</v>
+        <v>-9.763603986288683</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.445337243068375</v>
+        <v>-6.907770669875192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.401643717098725</v>
+        <v>-8.014194029862885</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.528090380286107</v>
+        <v>-2.266274204918921</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.997935330012639</v>
+        <v>-7.054491615819744</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.94871283672774</v>
+        <v>-3.884698888063613</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.998780664648303</v>
+        <v>-4.004833954754567</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.394934927798735</v>
+        <v>-6.306209814784956</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.860926439895055</v>
+        <v>-4.324635080936802</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.855519111213898</v>
+        <v>1.164800509324407</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.049693685203397</v>
+        <v>4.431491060464976</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.427969691040189</v>
+        <v>3.441764348058546</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.692050308868838</v>
+        <v>8.74332670748114</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.782100280112384</v>
+        <v>4.028870535061783</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.749166796964086</v>
+        <v>5.693858743212711</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.179895616807063</v>
+        <v>4.207303786139986</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.735916938748981</v>
+        <v>1.417670602889417</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.901401001822475</v>
+        <v>3.316577638911094</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.04767435389272082</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.07857516244738208</v>
+        <v>-0.0785751624473822</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.100870293903038</v>
@@ -1616,7 +1616,7 @@
         <v>-0.04804718998375845</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03470370913404045</v>
+        <v>0.03470370913404079</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.002487850915688998</v>
@@ -1625,7 +1625,7 @@
         <v>-0.07297534382398237</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.01029130676708141</v>
+        <v>-0.0102913067670816</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.404928628578627</v>
+        <v>-0.3775660458946073</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2464928523803749</v>
+        <v>-0.2546528180317721</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2797138617991174</v>
+        <v>-0.2941165832187071</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0437006904697942</v>
+        <v>-0.06057375646205936</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.196228079900551</v>
+        <v>-0.1970770925953848</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1111147129858868</v>
+        <v>-0.1061486408492393</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1269968672936</v>
+        <v>-0.1254446483842031</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2016214296184138</v>
+        <v>-0.1945787746120075</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1215746213413701</v>
+        <v>-0.1350118052909531</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04311396684036657</v>
+        <v>0.06922376385363346</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2681579180381599</v>
+        <v>0.2256378314741738</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2191419785398484</v>
+        <v>0.1808325088128271</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2904753996542054</v>
+        <v>0.2863679229584682</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1272687058911126</v>
+        <v>0.1317353661788717</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.194290565574317</v>
+        <v>0.1959015034060442</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1603869619806693</v>
+        <v>0.1565130241399273</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06429560245383081</v>
+        <v>0.05493746219070963</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1481968393764551</v>
+        <v>0.1226328817042635</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.8967666808743699</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.4417670999694111</v>
+        <v>0.4417670999694118</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-3.32217331613639</v>
@@ -1725,7 +1725,7 @@
         <v>-6.908567483469453</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.375035121695055</v>
+        <v>-6.375035121695049</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-2.528939032804522</v>
@@ -1734,7 +1734,7 @@
         <v>-6.180648737208982</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.731333606592464</v>
+        <v>-5.731333606592462</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.529575183391075</v>
+        <v>-2.654864044416299</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.294625901862056</v>
+        <v>-3.83438078207954</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.715337317577427</v>
+        <v>-2.921561077422628</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.062798511258308</v>
+        <v>-7.433123671386661</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.06274609449387</v>
+        <v>-10.79040231323512</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.01133547487068</v>
+        <v>-10.16867973808111</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-5.847629417003126</v>
+        <v>-5.937172154165706</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.539448335261042</v>
+        <v>-9.51097283894325</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.292645800068771</v>
+        <v>-9.000133101322938</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.023358885698611</v>
+        <v>5.128322446724831</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.795303067194961</v>
+        <v>2.180642271886072</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.30376223242585</v>
+        <v>4.610060771476856</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6408972280993549</v>
+        <v>0.4617668987878017</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.12828915603013</v>
+        <v>-2.938752124313809</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.542362758442655</v>
+        <v>-2.651542111666042</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.7470625728741208</v>
+        <v>0.9004446700672988</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.772667013133908</v>
+        <v>-2.752422110899759</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-2.579281311283738</v>
+        <v>-2.499539958362219</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.224822736060717</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1107526519828909</v>
+        <v>0.1107526519828911</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.09222587854406014</v>
@@ -1830,7 +1830,7 @@
         <v>-0.1917867146031039</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1769754792719033</v>
+        <v>-0.1769754792719031</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.08472949218509866</v>
@@ -1839,7 +1839,7 @@
         <v>-0.2070762569145206</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1920224171997687</v>
+        <v>-0.1920224171997686</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.547249764603491</v>
+        <v>-0.5442760366249391</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7246098846329985</v>
+        <v>-0.68152263959529</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5666612807284176</v>
+        <v>-0.5316338099105069</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1853767310064154</v>
+        <v>-0.1985047231299601</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2916587218899017</v>
+        <v>-0.2863444353268929</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2666243551219911</v>
+        <v>-0.26627853410371</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1863486141894265</v>
+        <v>-0.1938505183784407</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3093282908926912</v>
+        <v>-0.3050629211991697</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2928486411922899</v>
+        <v>-0.2893970869020199</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.86115866705163</v>
+        <v>2.133538545472551</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7389178802473572</v>
+        <v>1.174800917158793</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.671862395281155</v>
+        <v>2.071714114232697</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.02358357154274943</v>
+        <v>0.01372235619526463</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.08996602875380087</v>
+        <v>-0.08464261800494437</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.07604937580331661</v>
+        <v>-0.07778120413582625</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02589147142100328</v>
+        <v>0.02955790536936584</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1030033952809428</v>
+        <v>-0.09916955935471454</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.08896245582208367</v>
+        <v>-0.08824987724824801</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8091203254522783</v>
+        <v>-0.7173302287494641</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.696404092660561</v>
+        <v>-1.540280480407515</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.07335774434633104</v>
+        <v>0.1109848282049062</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.127885234501295</v>
+        <v>-4.142034424939408</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-6.790829788552177</v>
+        <v>-7.057460627827428</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.703655125727714</v>
+        <v>-5.982257268267293</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.02506551464276</v>
+        <v>-1.880822913731153</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.853080294448474</v>
+        <v>-3.798903376096784</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.436574832273011</v>
+        <v>-2.424752208078975</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.81825379941963</v>
+        <v>2.882979664123758</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.788986032654922</v>
+        <v>1.967763799801056</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.64104964815935</v>
+        <v>3.77049734375598</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.05061851890634636</v>
+        <v>0.1462115831851092</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.772040884330575</v>
+        <v>-2.690549124908047</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-2.039900955015962</v>
+        <v>-1.997531939762083</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.8662656982060984</v>
+        <v>0.9819053959797281</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.093044287962039</v>
+        <v>-1.054011390381254</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3223258800253621</v>
+        <v>0.3503233042865827</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04765147421230612</v>
+        <v>-0.04337427122524264</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1035447420638487</v>
+        <v>-0.09581875815075913</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.004229260078907004</v>
+        <v>0.007188176667949454</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1392509939109795</v>
+        <v>-0.1401813630491713</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2303025940065047</v>
+        <v>-0.2378890834291482</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1943400834314257</v>
+        <v>-0.1972759863992799</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.08801242161318265</v>
+        <v>-0.08246024303810348</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1674800161375858</v>
+        <v>-0.1653827476775579</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1047947028994567</v>
+        <v>-0.106160279089381</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1916031037341041</v>
+        <v>0.1999513177370256</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.121496687136958</v>
+        <v>0.1436743950321759</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.246106166857458</v>
+        <v>0.2560691638803809</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.00177551722464244</v>
+        <v>0.005111317841167277</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1017617569958233</v>
+        <v>-0.09759373917589802</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.07512400861968958</v>
+        <v>-0.07308287691113127</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.03988894281014529</v>
+        <v>0.04537562104648026</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.04992768211146569</v>
+        <v>-0.04700128881195586</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.01507487797827218</v>
+        <v>0.016319850061824</v>
       </c>
     </row>
     <row r="46">
